--- a/docs/ValueSet-CodPais.xlsx
+++ b/docs/ValueSet-CodPais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodPais.xlsx
+++ b/docs/ValueSet-CodPais.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-CodPais.xlsx
+++ b/docs/ValueSet-CodPais.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -102,10 +102,16 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>Codes</t>
-  </si>
-  <si>
-    <t>All codes</t>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>regex</t>
+  </si>
+  <si>
+    <t>[0-9]{3}</t>
   </si>
   <si>
     <t/>
@@ -383,7 +389,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,28 +401,40 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
         <v>29</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
